--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JordiWelp/Desktop/Timings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5653D987-BA39-8342-8087-5B077659FE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A645AF-456B-E04E-8AF8-8FFF64097039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16400" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
   </bookViews>
   <sheets>
     <sheet name="SerienGesamt" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="91">
   <si>
     <t>LexBasis</t>
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>pertubed2</t>
+  </si>
+  <si>
+    <t>pertubed3</t>
+  </si>
+  <si>
+    <t>pertubed4</t>
+  </si>
+  <si>
+    <t>pertubed5</t>
+  </si>
+  <si>
+    <t>fractalcombined</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>tran</t>
   </si>
   <si>
     <t>Polys</t>
@@ -190,6 +211,15 @@
     <t>LC</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>pertubed6</t>
+  </si>
+  <si>
+    <t>pertubed7</t>
+  </si>
+  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -218,6 +248,69 @@
   </si>
   <si>
     <t>example_27</t>
+  </si>
+  <si>
+    <t>cyclic4</t>
+  </si>
+  <si>
+    <t>cyclic5</t>
+  </si>
+  <si>
+    <t>FGLM</t>
+  </si>
+  <si>
+    <t>0,000&gt;</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>StdHilb</t>
+  </si>
+  <si>
+    <t>v5G3D20H</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>v4G3D20</t>
+  </si>
+  <si>
+    <t>v4G3D50</t>
+  </si>
+  <si>
+    <t>v4G5D60</t>
+  </si>
+  <si>
+    <t>v3G5D40</t>
+  </si>
+  <si>
+    <t>v3G5D0</t>
+  </si>
+  <si>
+    <t>&gt;4h</t>
+  </si>
+  <si>
+    <t>&gt;10h</t>
+  </si>
+  <si>
+    <t>&gt;1h</t>
+  </si>
+  <si>
+    <t>cyclic8</t>
+  </si>
+  <si>
+    <t>&gt;6h</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>abgebr. Da &gt;4h</t>
+  </si>
+  <si>
+    <t>&gt;5h</t>
   </si>
 </sst>
 </file>
@@ -308,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
@@ -633,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA0C377-EE6C-2441-9909-84179B6D3C43}">
-  <dimension ref="A5:AG124"/>
+  <dimension ref="A5:AG138"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="58" workbookViewId="0">
-      <selection activeCell="N79" sqref="A79:N79"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,103 +740,103 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1607,7 +1701,7 @@
         <v>29.667303853</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M21">
         <v>1.3504599999999999E-4</v>
@@ -1924,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M25">
         <v>4.6027299999999998E-4</v>
@@ -2001,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M26">
         <v>4.1159600000000002E-4</v>
@@ -2078,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M27">
         <v>4.9692200000000001E-4</v>
@@ -2155,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M28">
         <v>5.4041799999999997E-4</v>
@@ -2232,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M29">
         <v>5.2630500000000002E-4</v>
@@ -2309,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M30">
         <v>5.3292699999999999E-4</v>
@@ -2558,7 +2652,7 @@
         <v>8.7142683640000005</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M36">
         <v>1.8207600000000001E-4</v>
@@ -2641,7 +2735,7 @@
         <v>2.3669376679999998</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M37">
         <v>2.4423400000000002E-4</v>
@@ -2706,7 +2800,7 @@
         <v>6.4005652509999997</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>8.7739971329999999</v>
@@ -2724,7 +2818,7 @@
         <v>226.75850828399999</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M38">
         <v>2.6600199999999999E-4</v>
@@ -2804,7 +2898,7 @@
         <v>212.864799565</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M39">
         <v>3.2235800000000002E-4</v>
@@ -2869,7 +2963,7 @@
         <v>9.5315354970000001</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>8.9619505060000009</v>
@@ -2887,7 +2981,7 @@
         <v>225.41941905300001</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M40">
         <v>3.0172E-4</v>
@@ -2949,7 +3043,7 @@
         <v>9.4968588520000008</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>9.1823136099999996</v>
@@ -2967,7 +3061,7 @@
         <v>231.16856093800001</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M41">
         <v>2.9563899999999999E-4</v>
@@ -3029,7 +3123,7 @@
         <v>10.118238841</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>8.8636550209999996</v>
@@ -3047,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M42">
         <v>3.2625299999999998E-4</v>
@@ -3097,7 +3191,7 @@
         <v>9.7429052709999997</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>8.9868171659999998</v>
@@ -3115,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M43">
         <v>3.3597100000000001E-4</v>
@@ -3180,7 +3274,7 @@
         <v>112.593247444</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3192,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M46">
         <v>1.9443780000000001E-3</v>
       </c>
-      <c r="N46">
-        <v>0</v>
+      <c r="N46" t="s">
+        <v>83</v>
       </c>
       <c r="P46">
         <v>4</v>
@@ -3257,7 +3351,7 @@
         <v>770.27537047700002</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3269,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M47">
         <v>3.6405600000000003E-4</v>
       </c>
-      <c r="N47">
-        <v>0</v>
+      <c r="N47" t="s">
+        <v>85</v>
       </c>
       <c r="P47">
         <v>4</v>
@@ -3351,8 +3445,8 @@
       <c r="M48">
         <v>2.70234E-4</v>
       </c>
-      <c r="N48">
-        <v>0</v>
+      <c r="N48" t="s">
+        <v>90</v>
       </c>
       <c r="P48">
         <v>6</v>
@@ -3394,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3408,7 +3502,7 @@
         <v>16581.689793684</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49">
         <v>2579.6469896419999</v>
@@ -3417,7 +3511,7 @@
         <v>9739.1191563730008</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>8163.0606228389997</v>
@@ -3426,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M49">
         <v>3.0193899999999998E-4</v>
@@ -3471,7 +3565,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3551,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -3562,375 +3656,751 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="P57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG57" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>6.8869299999999999E-4</v>
+      </c>
+      <c r="C58">
+        <v>8.69697E-4</v>
+      </c>
+      <c r="D58">
+        <v>1.000697E-3</v>
+      </c>
+      <c r="E58">
+        <v>8.07572E-4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.0082800000000001E-3</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>7.4729199999999999E-4</v>
+      </c>
+      <c r="M58">
+        <v>1.59968E-4</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1.5783400000000001E-4</v>
+      </c>
+      <c r="P58">
+        <v>6</v>
+      </c>
+      <c r="Q58">
+        <v>24</v>
+      </c>
+      <c r="R58">
         <v>8</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>7</v>
+      </c>
+      <c r="V58">
+        <v>30</v>
+      </c>
+      <c r="W58">
+        <v>6</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+      <c r="AB58">
+        <v>2</v>
+      </c>
+      <c r="AC58">
+        <v>2</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>4.4803619999999999E-3</v>
+      </c>
+      <c r="C59">
+        <v>9.4338129999999992E-3</v>
+      </c>
+      <c r="D59">
+        <v>3.7560136000000001E-2</v>
+      </c>
+      <c r="E59">
+        <v>4.0244861999999999E-2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4.2166679999999998E-2</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1.5855509999999999E-3</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1.721537E-3</v>
+      </c>
+      <c r="P59">
+        <v>11</v>
+      </c>
+      <c r="Q59">
+        <v>102</v>
+      </c>
+      <c r="R59">
+        <v>15</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>20</v>
+      </c>
+      <c r="V59">
+        <v>232</v>
+      </c>
+      <c r="W59">
+        <v>8</v>
+      </c>
+      <c r="X59">
         <v>9</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
+        <v>30</v>
+      </c>
+      <c r="AC59">
+        <v>33</v>
+      </c>
+      <c r="AE59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>0.18082484600000001</v>
+      </c>
+      <c r="C60">
+        <v>0.12461857599999999</v>
+      </c>
+      <c r="D60">
+        <v>0.81526306800000004</v>
+      </c>
+      <c r="E60">
+        <v>1.127418531</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.83391266399999997</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2.1126896999999999E-2</v>
+      </c>
+      <c r="N60" s="6">
+        <v>7.6164753000000002E-2</v>
+      </c>
+      <c r="P60">
+        <v>17</v>
+      </c>
+      <c r="Q60">
+        <v>330</v>
+      </c>
+      <c r="R60">
+        <v>48</v>
+      </c>
+      <c r="S60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>45</v>
+      </c>
+      <c r="V60">
+        <v>1135</v>
+      </c>
+      <c r="W60">
+        <v>9</v>
+      </c>
+      <c r="X60">
+        <v>13</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>9</v>
+      </c>
+      <c r="AB60">
+        <v>69</v>
+      </c>
+      <c r="AC60">
+        <v>123</v>
+      </c>
+      <c r="AE60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>71.303005471000006</v>
+      </c>
+      <c r="D61">
+        <v>345.27160714199999</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>237.52337429100001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>3.5698467950000001</v>
+      </c>
+      <c r="N61" s="8">
+        <v>605.70182897699999</v>
+      </c>
+      <c r="AA61">
+        <v>12</v>
+      </c>
+      <c r="AB61">
+        <v>264</v>
+      </c>
+      <c r="AC61">
+        <v>901</v>
+      </c>
+      <c r="AE61">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>3.3869199999999999E-3</v>
+      </c>
+      <c r="C63">
+        <v>3.4602729999999998E-3</v>
+      </c>
+      <c r="D63">
+        <v>6.967361E-3</v>
+      </c>
+      <c r="E63">
+        <v>9.6637440000000002E-3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.0383543E-2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>6.4196999999999995E-4</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1.173898E-3</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>93</v>
+      </c>
+      <c r="R63">
+        <v>15</v>
+      </c>
+      <c r="S63">
+        <v>6</v>
+      </c>
+      <c r="U63">
+        <v>13</v>
+      </c>
+      <c r="V63">
+        <v>173</v>
+      </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Z63">
+        <v>2</v>
+      </c>
+      <c r="AA63">
+        <v>4</v>
+      </c>
+      <c r="AB63">
         <v>10</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="AC63">
+        <v>20</v>
+      </c>
+      <c r="AE63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>0.33319025800000002</v>
+      </c>
+      <c r="C64">
+        <v>1.5829882E-2</v>
+      </c>
+      <c r="D64">
+        <v>6.6766495999999995E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.105050222</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>9.5623037999999994E-2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3.4218529999999999E-3</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1.9592793000000001E-2</v>
+      </c>
+      <c r="P64">
+        <v>6</v>
+      </c>
+      <c r="Q64">
+        <v>193</v>
+      </c>
+      <c r="R64">
+        <v>32</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>22</v>
+      </c>
+      <c r="V64">
+        <v>557</v>
+      </c>
+      <c r="W64">
+        <v>6</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>4</v>
+      </c>
+      <c r="AB64">
+        <v>17</v>
+      </c>
+      <c r="AC64">
+        <v>34</v>
+      </c>
+      <c r="AE64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>68.322015570000005</v>
+      </c>
+      <c r="C65">
+        <v>52.792596709000001</v>
+      </c>
+      <c r="D65">
+        <v>9.0662777259999991</v>
+      </c>
+      <c r="E65">
+        <v>1.4044816840000001</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>67.858772004000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>2.7592098999999998E-2</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <v>449</v>
+      </c>
+      <c r="R65">
+        <v>64</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="U65">
+        <v>41</v>
+      </c>
+      <c r="V65">
+        <v>1923</v>
+      </c>
+      <c r="W65">
+        <v>7</v>
+      </c>
+      <c r="X65">
         <v>11</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>17</v>
+      </c>
+      <c r="AC65">
+        <v>46</v>
+      </c>
+      <c r="AE65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0.28639540699999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58">
-        <v>0.26848895099999998</v>
-      </c>
-      <c r="C58">
-        <v>0.10308637900000001</v>
-      </c>
-      <c r="D58">
-        <v>0.86537873300000001</v>
-      </c>
-      <c r="E58">
-        <v>1.1672789539999999</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0.744103293</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>2.1526657000000001E-2</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>62.289276843000003</v>
-      </c>
-      <c r="D59">
-        <v>273.10479699299998</v>
-      </c>
-      <c r="E59">
-        <v>895.35408393</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>203.91686235</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>3.037723948</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62">
-        <v>3.3869199999999999E-3</v>
-      </c>
-      <c r="C62">
-        <v>3.4602729999999998E-3</v>
-      </c>
-      <c r="D62">
-        <v>6.967361E-3</v>
-      </c>
-      <c r="E62">
-        <v>9.6637440000000002E-3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1.0383543E-2</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>6.4196999999999995E-4</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63">
-        <v>0.33319025800000002</v>
-      </c>
-      <c r="C63">
-        <v>1.5829882E-2</v>
-      </c>
-      <c r="D63">
-        <v>6.6766495999999995E-2</v>
-      </c>
-      <c r="E63">
-        <v>0.105050222</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>9.5623037999999994E-2</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>3.4218529999999999E-3</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64">
-        <v>68.322015570000005</v>
-      </c>
-      <c r="C64">
-        <v>52.792596709000001</v>
-      </c>
-      <c r="D64">
-        <v>9.0662777259999991</v>
-      </c>
-      <c r="E64">
-        <v>1.4044816840000001</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>67.858772004000002</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>2.7592098999999998E-2</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0.26495128299999998</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4999,7 +5469,7 @@
         <v>9072</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -5040,7 +5510,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4</v>
       </c>
@@ -5081,7 +5551,7 @@
         <v>11779</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4</v>
       </c>
@@ -5122,7 +5592,7 @@
         <v>13440</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E116" s="2">
         <v>37110536</v>
       </c>
@@ -5154,7 +5624,7 @@
         <v>14688</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
@@ -5165,7 +5635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
@@ -5203,7 +5673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4</v>
       </c>
@@ -5241,7 +5711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
@@ -5279,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5</v>
       </c>
@@ -5317,7 +5787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5</v>
       </c>
@@ -5353,6 +5823,402 @@
       </c>
       <c r="M124">
         <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129">
+        <v>80600</v>
+      </c>
+      <c r="F129">
+        <v>158176</v>
+      </c>
+      <c r="G129">
+        <v>158776</v>
+      </c>
+      <c r="H129">
+        <v>159488</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>204744</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>200528</v>
+      </c>
+      <c r="P129">
+        <v>48</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>71</v>
+      </c>
+      <c r="E130">
+        <v>472968</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1847992</v>
+      </c>
+      <c r="G130" s="2">
+        <v>8243184</v>
+      </c>
+      <c r="H130" s="2">
+        <v>8909528</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <v>9085784</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>48</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1908344</v>
+      </c>
+      <c r="F131" s="2">
+        <v>10098816</v>
+      </c>
+      <c r="G131" s="2">
+        <v>77567264</v>
+      </c>
+      <c r="H131" s="2">
+        <v>124464896</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <v>96869861</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>48</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>331814680</v>
+      </c>
+      <c r="G132" s="2">
+        <v>7945397104</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
+        <v>8990290048</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>48</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135">
+        <v>306472</v>
+      </c>
+      <c r="F135">
+        <v>783632</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1963496</v>
+      </c>
+      <c r="H135" s="2">
+        <v>3022152</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" s="2">
+        <v>3676192</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>48</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136">
+        <v>946424</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2263904</v>
+      </c>
+      <c r="G136" s="2">
+        <v>9869048</v>
+      </c>
+      <c r="H136" s="2">
+        <v>18220368</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" s="2">
+        <v>23246864</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>48</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3458376</v>
+      </c>
+      <c r="F137" s="2">
+        <v>7978720</v>
+      </c>
+      <c r="G137" s="2">
+        <v>36105536</v>
+      </c>
+      <c r="H137" s="2">
+        <v>99509360</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" s="2">
+        <v>148196440</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>48</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>80</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5362,485 +6228,1033 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB3E6BB-EB79-1F47-977D-B62CCCBD8CEF}">
-  <dimension ref="B9:T16"/>
+  <dimension ref="B21:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:T16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
         <v>6.4532820000000003E-3</v>
       </c>
-      <c r="D9">
+      <c r="D22">
         <v>3.9703967999999999E-2</v>
       </c>
-      <c r="E9">
+      <c r="E22">
         <v>3.9567126000000001E-2</v>
       </c>
-      <c r="F9">
+      <c r="F22">
         <v>5.3045478E-2</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>6.0179313999999998E-2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>2.4409060000000001E-3</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.14512074999999999</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.33228011000000002</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.36394757</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.37669709000000001</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.28841995999999998</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
         <v>3.2395850000000001E-3</v>
       </c>
-      <c r="D10">
+      <c r="D23">
         <v>5.6328790000000004E-3</v>
       </c>
-      <c r="E10">
+      <c r="E23">
         <v>8.4094029999999993E-3</v>
       </c>
-      <c r="F10">
+      <c r="F23">
         <v>8.6265549999999993E-3</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>9.6106239999999999E-3</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>8.3698209999999995E-3</v>
       </c>
-      <c r="S10">
-        <v>6.9077600000000004E-4</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11">
+      <c r="K23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.62082408</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.70973067000000001</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.13897772</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.18223937000000001</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.71198289999999997</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.12475796</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
         <v>8.1411099999999996E-4</v>
       </c>
-      <c r="D11">
+      <c r="D24">
         <v>1.3530560000000001E-3</v>
       </c>
-      <c r="E11">
+      <c r="E24">
         <v>1.86797E-3</v>
       </c>
-      <c r="F11">
+      <c r="F24">
         <v>1.844584E-3</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>2.6123919999999998E-3</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>1.927397E-3</v>
       </c>
-      <c r="S11">
-        <v>2.49872E-4</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12">
+      <c r="K24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1.9082700000000001E-3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4.0533499999999998E-3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5.98249E-3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>5.2912200000000001E-3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>6.8724800000000003E-3</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5.3353899999999998E-3</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
         <v>9.3116200000000003E-4</v>
       </c>
-      <c r="D12">
+      <c r="D25">
         <v>1.407901E-3</v>
       </c>
-      <c r="E12">
+      <c r="E25">
         <v>1.4253270000000001E-3</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2.0414270000000002E-3</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>1.6805559999999999E-3</v>
       </c>
-      <c r="S12">
-        <v>1.8321900000000001E-4</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13">
+      <c r="K25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.56733E-3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3.4128600000000002E-3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.5574999999999999E-3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>4.6331200000000001E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>3.4306300000000001E-3</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
         <v>5.4417214899999999</v>
       </c>
-      <c r="D13">
+      <c r="D26">
         <v>0.11065082800000001</v>
       </c>
-      <c r="E13">
+      <c r="E26">
         <v>0.14712112499999999</v>
       </c>
-      <c r="F13">
+      <c r="F26">
         <v>0.29581357600000002</v>
       </c>
-      <c r="G13">
+      <c r="G26">
         <v>0.47663345699999998</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="H26">
         <v>0.67795806700000005</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1.2349733999999999E-2</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="3">
+        <v>4865.8352100000002</v>
+      </c>
+      <c r="O26" s="3">
+        <v>90.122253299999997</v>
+      </c>
+      <c r="P26" s="3">
+        <v>81.836675099999994</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>564.41684399999997</v>
+      </c>
+      <c r="R26" s="3">
+        <v>583.23256000000003</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1117.3842099999999</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>2.2184000999999998E-2</v>
+      </c>
+      <c r="D27">
+        <v>8.1613042999999996E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.16488160099999999</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>6.0804121000000003E-2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>9.307899E-2</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="3">
+        <v>11.3398971</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.73906015000000003</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.78194213999999995</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.67171409999999998</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.81668830000000003</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>0.810177166</v>
+      </c>
+      <c r="D28">
+        <v>0.225557379</v>
+      </c>
+      <c r="E28">
+        <v>1.3454178999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.989958015</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1.405294378</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="3">
+        <v>12295.0705</v>
+      </c>
+      <c r="O28" s="3">
+        <v>336.62338299999999</v>
+      </c>
+      <c r="P28" s="3">
+        <v>49.304272400000002</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>33.693612600000002</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>364.81901599999998</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>3.4427870000000001E-3</v>
+      </c>
+      <c r="D29">
+        <v>5.3718430000000003E-3</v>
+      </c>
+      <c r="E29">
+        <v>8.8946379999999999E-3</v>
+      </c>
+      <c r="F29">
+        <v>8.6493119999999993E-3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1.1079009000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>8.4064020000000003E-3</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.56208994000000001</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.66472337999999997</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.12158534999999999</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.13364150999999999</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.68579946999999997</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.12618145</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
-        <v>2.2184000999999998E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.1613042999999996E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.16488160099999999</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>6.0804121000000003E-2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>9.307899E-2</v>
-      </c>
-      <c r="S14">
-        <v>9.4261300000000002E-4</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <v>0.810177166</v>
-      </c>
-      <c r="D15">
-        <v>0.225557379</v>
-      </c>
-      <c r="E15">
-        <v>1.3454178999999999</v>
-      </c>
-      <c r="F15">
-        <v>1.989958015</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1.405294378</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>2.6481919E-2</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16">
-        <v>3.4427870000000001E-3</v>
-      </c>
-      <c r="D16">
-        <v>5.3718430000000003E-3</v>
-      </c>
-      <c r="E16">
-        <v>8.8946379999999999E-3</v>
-      </c>
-      <c r="F16">
-        <v>8.6493119999999993E-3</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1.1079009000000001E-2</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>8.4064020000000003E-3</v>
-      </c>
-      <c r="S16">
-        <v>6.5824199999999996E-4</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3">
+        <v>57.869478800000003</v>
+      </c>
+      <c r="D35" s="3">
+        <v>86.4493303</v>
+      </c>
+      <c r="E35" s="3">
+        <v>280.10298899999998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1330.11896</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>76.348035699999997</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.8230630000000001E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.6499779999999998E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.29577967999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7.0050550000000003E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>7.9358269999999995E-2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7.8574600000000001E-3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.9968440000000001E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.4647300000000001E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4.0485609999999998E-2</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>3.5811320000000001E-2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.38695663000000002</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.13815307</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.3989679800000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.5089006600000001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.2656808899999996</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5.7547299999999996E-3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4.0381180000000003E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.8784249999999999E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.8219030000000003E-2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7.7677299999999996E-3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4.6543830000000001E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4.387187E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>7.3610590000000004E-2</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5849,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DF896-349E-BC4A-BE6F-3A611F88B7E7}">
-  <dimension ref="A6:BQ104"/>
+  <dimension ref="A6:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView topLeftCell="AN76" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AF117" sqref="AF117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5867,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -5882,7 +7296,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AL6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
@@ -5894,7 +7308,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
       <c r="AW6" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
@@ -5906,7 +7320,7 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
       <c r="BG6" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
@@ -5920,198 +7334,198 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.2">
@@ -11552,10 +12966,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
@@ -11567,7 +12981,7 @@
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
       <c r="AM59" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
@@ -11579,7 +12993,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
       <c r="AX59" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AY59" s="3"/>
       <c r="AZ59" s="3"/>
@@ -11591,7 +13005,7 @@
       <c r="BF59" s="3"/>
       <c r="BG59" s="3"/>
       <c r="BH59" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BI59" s="3"/>
       <c r="BJ59" s="3"/>
@@ -11605,198 +13019,198 @@
     </row>
     <row r="60" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AG60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AN60" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AO60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP60" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AQ60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AS60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AV60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AY60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AZ60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BB60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BC60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BD60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BE60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BF60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BH60" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BI60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BJ60" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BK60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BM60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BN60" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BO60" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BP60" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BQ60" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:69" x14ac:dyDescent="0.2">
@@ -16837,7 +18251,7 @@
         <v>855034624</v>
       </c>
       <c r="Q102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="R102" s="4"/>
       <c r="T102" s="4"/>
@@ -17215,6 +18629,1999 @@
       </c>
       <c r="BP104">
         <v>6813472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="G110">
+        <v>9.66</v>
+      </c>
+      <c r="H110">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="I110">
+        <v>40.67</v>
+      </c>
+      <c r="J110">
+        <v>1.2E-4</v>
+      </c>
+      <c r="K110">
+        <v>26.97</v>
+      </c>
+      <c r="L110">
+        <v>1.01E-4</v>
+      </c>
+      <c r="M110">
+        <v>22.7</v>
+      </c>
+      <c r="N110">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="R110">
+        <v>10.15</v>
+      </c>
+      <c r="S110">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="T110">
+        <v>44.67</v>
+      </c>
+      <c r="U110">
+        <v>1.73E-4</v>
+      </c>
+      <c r="V110">
+        <v>29.27</v>
+      </c>
+      <c r="W110" s="2">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="X110">
+        <v>15.91</v>
+      </c>
+      <c r="Y110">
+        <v>5.9100000000000005E-4</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="AC110">
+        <v>10.83</v>
+      </c>
+      <c r="AD110">
+        <v>2.1800000000000001E-4</v>
+      </c>
+      <c r="AE110">
+        <v>42.17</v>
+      </c>
+      <c r="AF110">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="AG110">
+        <v>30.56</v>
+      </c>
+      <c r="AH110" s="2">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="AI110">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AJ110">
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="AM110" s="2">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="AN110">
+        <v>7.33</v>
+      </c>
+      <c r="AO110">
+        <v>2.34E-4</v>
+      </c>
+      <c r="AP110">
+        <v>43.98</v>
+      </c>
+      <c r="AQ110">
+        <v>1.75E-4</v>
+      </c>
+      <c r="AR110">
+        <v>32.89</v>
+      </c>
+      <c r="AS110" s="2">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="AT110">
+        <v>15.79</v>
+      </c>
+      <c r="AU110">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="AX110" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="AY110">
+        <v>7.1</v>
+      </c>
+      <c r="AZ110" s="2">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="BA110">
+        <v>28.39</v>
+      </c>
+      <c r="BB110" s="2">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="BC110">
+        <v>39.35</v>
+      </c>
+      <c r="BD110" s="2">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="BE110">
+        <v>25.16</v>
+      </c>
+      <c r="BF110">
+        <v>1.55E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F111">
+        <v>2.04E-4</v>
+      </c>
+      <c r="G111">
+        <v>5.15</v>
+      </c>
+      <c r="H111">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="I111">
+        <v>51.79</v>
+      </c>
+      <c r="J111">
+        <v>9.5E-4</v>
+      </c>
+      <c r="K111">
+        <v>24</v>
+      </c>
+      <c r="L111">
+        <v>7.54E-4</v>
+      </c>
+      <c r="M111">
+        <v>19.05</v>
+      </c>
+      <c r="N111">
+        <v>3.9579999999999997E-3</v>
+      </c>
+      <c r="Q111">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="R111">
+        <v>5.61</v>
+      </c>
+      <c r="S111">
+        <v>1.9559999999999998E-3</v>
+      </c>
+      <c r="T111">
+        <v>24.53</v>
+      </c>
+      <c r="U111">
+        <v>2.5479999999999999E-3</v>
+      </c>
+      <c r="V111">
+        <v>31.95</v>
+      </c>
+      <c r="W111">
+        <v>3.0240000000000002E-3</v>
+      </c>
+      <c r="X111">
+        <v>37.92</v>
+      </c>
+      <c r="Y111">
+        <v>7.9749999999999995E-3</v>
+      </c>
+      <c r="AB111">
+        <v>1.792E-3</v>
+      </c>
+      <c r="AC111">
+        <v>5.5</v>
+      </c>
+      <c r="AD111">
+        <v>3.663E-3</v>
+      </c>
+      <c r="AE111">
+        <v>11.25</v>
+      </c>
+      <c r="AF111">
+        <v>1.2430999999999999E-2</v>
+      </c>
+      <c r="AG111">
+        <v>38.18</v>
+      </c>
+      <c r="AH111">
+        <v>1.4674E-2</v>
+      </c>
+      <c r="AI111">
+        <v>45.07</v>
+      </c>
+      <c r="AJ111">
+        <v>3.2559999999999999E-2</v>
+      </c>
+      <c r="AM111">
+        <v>1.9120000000000001E-3</v>
+      </c>
+      <c r="AN111">
+        <v>5.57</v>
+      </c>
+      <c r="AO111">
+        <v>3.6459999999999999E-3</v>
+      </c>
+      <c r="AP111">
+        <v>10.62</v>
+      </c>
+      <c r="AQ111">
+        <v>1.3018E-2</v>
+      </c>
+      <c r="AR111">
+        <v>37.93</v>
+      </c>
+      <c r="AS111">
+        <v>1.5741000000000002E-2</v>
+      </c>
+      <c r="AT111">
+        <v>45.87</v>
+      </c>
+      <c r="AU111">
+        <v>3.4317E-2</v>
+      </c>
+      <c r="AX111">
+        <v>1.3129999999999999E-3</v>
+      </c>
+      <c r="AY111">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AZ111">
+        <v>3.1719999999999999E-3</v>
+      </c>
+      <c r="BA111">
+        <v>12.12</v>
+      </c>
+      <c r="BB111">
+        <v>1.0788000000000001E-2</v>
+      </c>
+      <c r="BC111">
+        <v>41.22</v>
+      </c>
+      <c r="BD111">
+        <v>1.0895999999999999E-2</v>
+      </c>
+      <c r="BE111">
+        <v>41.64</v>
+      </c>
+      <c r="BF111">
+        <v>2.6168999999999901E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="G112">
+        <v>0.47</v>
+      </c>
+      <c r="H112">
+        <v>5.4817999999999999E-2</v>
+      </c>
+      <c r="I112">
+        <v>30.44</v>
+      </c>
+      <c r="J112">
+        <v>0.11579100000000001</v>
+      </c>
+      <c r="K112">
+        <v>64.3</v>
+      </c>
+      <c r="L112">
+        <v>8.6300000000000005E-3</v>
+      </c>
+      <c r="M112">
+        <v>4.79</v>
+      </c>
+      <c r="N112">
+        <v>0.18008099999999999</v>
+      </c>
+      <c r="Q112">
+        <v>2.1450000000000002E-3</v>
+      </c>
+      <c r="R112">
+        <v>0.09</v>
+      </c>
+      <c r="S112">
+        <v>3.5101E-2</v>
+      </c>
+      <c r="T112">
+        <v>1.39</v>
+      </c>
+      <c r="U112">
+        <v>2.7182000000000001E-2</v>
+      </c>
+      <c r="V112">
+        <v>1.08</v>
+      </c>
+      <c r="W112">
+        <v>2.4539800000000001</v>
+      </c>
+      <c r="X112">
+        <v>97.44</v>
+      </c>
+      <c r="Y112">
+        <v>2.518408</v>
+      </c>
+      <c r="AB112">
+        <v>1.4364E-2</v>
+      </c>
+      <c r="AC112">
+        <v>2.82</v>
+      </c>
+      <c r="AD112">
+        <v>2.7649E-2</v>
+      </c>
+      <c r="AE112">
+        <v>5.43</v>
+      </c>
+      <c r="AF112">
+        <v>0.19082199999999999</v>
+      </c>
+      <c r="AG112">
+        <v>37.46</v>
+      </c>
+      <c r="AH112">
+        <v>0.27658100000000002</v>
+      </c>
+      <c r="AI112">
+        <v>54.29</v>
+      </c>
+      <c r="AJ112">
+        <v>0.50941599999999998</v>
+      </c>
+      <c r="AM112">
+        <v>2.315E-2</v>
+      </c>
+      <c r="AN112">
+        <v>2.93</v>
+      </c>
+      <c r="AO112">
+        <v>3.8496000000000002E-2</v>
+      </c>
+      <c r="AP112">
+        <v>4.87</v>
+      </c>
+      <c r="AQ112">
+        <v>0.30047400000000002</v>
+      </c>
+      <c r="AR112">
+        <v>37.99</v>
+      </c>
+      <c r="AS112">
+        <v>0.42882399999999998</v>
+      </c>
+      <c r="AT112">
+        <v>54.22</v>
+      </c>
+      <c r="AU112">
+        <v>0.79094399999999998</v>
+      </c>
+      <c r="AX112">
+        <v>1.4560999999999999E-2</v>
+      </c>
+      <c r="AY112">
+        <v>2.99</v>
+      </c>
+      <c r="AZ112">
+        <v>3.4535999999999997E-2</v>
+      </c>
+      <c r="BA112">
+        <v>7.08</v>
+      </c>
+      <c r="BB112">
+        <v>0.19831799999999999</v>
+      </c>
+      <c r="BC112">
+        <v>40.67</v>
+      </c>
+      <c r="BD112">
+        <v>0.24022099999999999</v>
+      </c>
+      <c r="BE112">
+        <v>49.26</v>
+      </c>
+      <c r="BF112">
+        <v>0.48763599999999901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q113">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="R113">
+        <v>0.9</v>
+      </c>
+      <c r="S113">
+        <v>43.949444</v>
+      </c>
+      <c r="T113">
+        <v>62.88</v>
+      </c>
+      <c r="U113">
+        <v>18.497983999999999</v>
+      </c>
+      <c r="V113">
+        <v>26.47</v>
+      </c>
+      <c r="W113">
+        <v>6.8171080000000002</v>
+      </c>
+      <c r="X113">
+        <v>9.75</v>
+      </c>
+      <c r="Y113">
+        <v>69.893636000000001</v>
+      </c>
+      <c r="AB113">
+        <v>15.419978</v>
+      </c>
+      <c r="AC113">
+        <v>5.13</v>
+      </c>
+      <c r="AD113">
+        <v>8.4098050000000004</v>
+      </c>
+      <c r="AE113">
+        <v>2.8</v>
+      </c>
+      <c r="AF113">
+        <v>105.72574899999999</v>
+      </c>
+      <c r="AG113">
+        <v>35.15</v>
+      </c>
+      <c r="AH113">
+        <v>171.25770399999999</v>
+      </c>
+      <c r="AI113">
+        <v>56.93</v>
+      </c>
+      <c r="AJ113">
+        <v>300.81323599999899</v>
+      </c>
+      <c r="AM113">
+        <v>27.688096000000002</v>
+      </c>
+      <c r="AN113">
+        <v>2.86</v>
+      </c>
+      <c r="AO113">
+        <v>5.7123090000000003</v>
+      </c>
+      <c r="AP113">
+        <v>0.59</v>
+      </c>
+      <c r="AQ113">
+        <v>356.07283799999999</v>
+      </c>
+      <c r="AR113">
+        <v>36.74</v>
+      </c>
+      <c r="AS113">
+        <v>579.63135599999998</v>
+      </c>
+      <c r="AT113">
+        <v>59.81</v>
+      </c>
+      <c r="AU113">
+        <v>969.10459900000001</v>
+      </c>
+      <c r="AX113">
+        <v>7.1407629999999997</v>
+      </c>
+      <c r="AY113">
+        <v>3.56</v>
+      </c>
+      <c r="AZ113">
+        <v>3.4231880000000001</v>
+      </c>
+      <c r="BA113">
+        <v>1.71</v>
+      </c>
+      <c r="BB113">
+        <v>85.086405999999997</v>
+      </c>
+      <c r="BC113">
+        <v>42.38</v>
+      </c>
+      <c r="BD113">
+        <v>105.118149</v>
+      </c>
+      <c r="BE113">
+        <v>52.36</v>
+      </c>
+      <c r="BF113">
+        <v>200.768506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q114">
+        <v>0.47277599999999997</v>
+      </c>
+      <c r="R114">
+        <v>0.54</v>
+      </c>
+      <c r="S114">
+        <v>5.85006</v>
+      </c>
+      <c r="T114">
+        <v>6.73</v>
+      </c>
+      <c r="U114">
+        <v>29.073474000000001</v>
+      </c>
+      <c r="V114">
+        <v>33.43</v>
+      </c>
+      <c r="W114">
+        <v>51.568748999999997</v>
+      </c>
+      <c r="X114">
+        <v>59.3</v>
+      </c>
+      <c r="Y114">
+        <v>86.965058999999997</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="G115">
+        <v>4.5</v>
+      </c>
+      <c r="H115">
+        <v>9.2500000000000004E-4</v>
+      </c>
+      <c r="I115">
+        <v>31.28</v>
+      </c>
+      <c r="J115">
+        <v>1.586E-3</v>
+      </c>
+      <c r="K115">
+        <v>53.64</v>
+      </c>
+      <c r="L115">
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="M115">
+        <v>10.59</v>
+      </c>
+      <c r="N115">
+        <v>2.957E-3</v>
+      </c>
+      <c r="Q115">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="R115">
+        <v>7.01</v>
+      </c>
+      <c r="S115">
+        <v>8.9499999999999996E-4</v>
+      </c>
+      <c r="T115">
+        <v>28.65</v>
+      </c>
+      <c r="U115">
+        <v>1.072E-3</v>
+      </c>
+      <c r="V115">
+        <v>34.31</v>
+      </c>
+      <c r="W115">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="X115">
+        <v>30.03</v>
+      </c>
+      <c r="Y115">
+        <v>3.124E-3</v>
+      </c>
+      <c r="AB115">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="AC115">
+        <v>7.46</v>
+      </c>
+      <c r="AD115">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="AE115">
+        <v>15.97</v>
+      </c>
+      <c r="AF115">
+        <v>2.1930000000000001E-3</v>
+      </c>
+      <c r="AG115">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="AH115">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="AI115">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="AJ115">
+        <v>5.4169999999999999E-3</v>
+      </c>
+      <c r="AM115">
+        <v>6.11E-4</v>
+      </c>
+      <c r="AN115">
+        <v>8.86</v>
+      </c>
+      <c r="AO115">
+        <v>1.029E-3</v>
+      </c>
+      <c r="AP115">
+        <v>14.93</v>
+      </c>
+      <c r="AQ115">
+        <v>2.918E-3</v>
+      </c>
+      <c r="AR115">
+        <v>42.33</v>
+      </c>
+      <c r="AS115">
+        <v>2.336E-3</v>
+      </c>
+      <c r="AT115">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="AU115">
+        <v>6.8939999999999904E-3</v>
+      </c>
+      <c r="AX115">
+        <v>6.1300000000000005E-4</v>
+      </c>
+      <c r="AY115">
+        <v>7.77</v>
+      </c>
+      <c r="AZ115">
+        <v>1.366E-3</v>
+      </c>
+      <c r="BA115">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="BB115">
+        <v>3.6189999999999998E-3</v>
+      </c>
+      <c r="BC115">
+        <v>45.85</v>
+      </c>
+      <c r="BD115">
+        <v>2.2950000000000002E-3</v>
+      </c>
+      <c r="BE115">
+        <v>29.08</v>
+      </c>
+      <c r="BF115">
+        <v>7.8930000000000007E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116">
+        <v>4.1399999999999998E-4</v>
+      </c>
+      <c r="G116">
+        <v>0.12</v>
+      </c>
+      <c r="H116">
+        <v>1.1235E-2</v>
+      </c>
+      <c r="I116">
+        <v>3.37</v>
+      </c>
+      <c r="J116">
+        <v>0.31935200000000002</v>
+      </c>
+      <c r="K116">
+        <v>95.89</v>
+      </c>
+      <c r="L116">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="M116">
+        <v>0.62</v>
+      </c>
+      <c r="N116">
+        <v>0.33305099999999999</v>
+      </c>
+      <c r="Q116">
+        <v>5.2300000000000003E-4</v>
+      </c>
+      <c r="R116">
+        <v>3.62</v>
+      </c>
+      <c r="S116">
+        <v>5.2430000000000003E-3</v>
+      </c>
+      <c r="T116">
+        <v>36.31</v>
+      </c>
+      <c r="U116">
+        <v>4.9870000000000001E-3</v>
+      </c>
+      <c r="V116">
+        <v>34.54</v>
+      </c>
+      <c r="W116">
+        <v>3.686E-3</v>
+      </c>
+      <c r="X116">
+        <v>25.53</v>
+      </c>
+      <c r="Y116">
+        <v>1.4439E-2</v>
+      </c>
+      <c r="AB116">
+        <v>2.127E-3</v>
+      </c>
+      <c r="AC116">
+        <v>3.65</v>
+      </c>
+      <c r="AD116">
+        <v>4.3759999999999997E-3</v>
+      </c>
+      <c r="AE116">
+        <v>7.51</v>
+      </c>
+      <c r="AF116">
+        <v>3.3038999999999999E-2</v>
+      </c>
+      <c r="AG116">
+        <v>56.68</v>
+      </c>
+      <c r="AH116">
+        <v>1.8748999999999998E-2</v>
+      </c>
+      <c r="AI116">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="AJ116">
+        <v>5.8290999999999898E-2</v>
+      </c>
+      <c r="AM116">
+        <v>4.045E-3</v>
+      </c>
+      <c r="AN116">
+        <v>5.39</v>
+      </c>
+      <c r="AO116">
+        <v>5.1679999999999999E-3</v>
+      </c>
+      <c r="AP116">
+        <v>6.89</v>
+      </c>
+      <c r="AQ116">
+        <v>2.8927999999999999E-2</v>
+      </c>
+      <c r="AR116">
+        <v>38.56</v>
+      </c>
+      <c r="AS116">
+        <v>3.6882999999999999E-2</v>
+      </c>
+      <c r="AT116">
+        <v>49.16</v>
+      </c>
+      <c r="AU116">
+        <v>7.5023999999999993E-2</v>
+      </c>
+      <c r="AX116">
+        <v>3.153E-3</v>
+      </c>
+      <c r="AY116">
+        <v>4.26</v>
+      </c>
+      <c r="AZ116">
+        <v>3.7669999999999999E-3</v>
+      </c>
+      <c r="BA116">
+        <v>5.09</v>
+      </c>
+      <c r="BB116">
+        <v>4.4815000000000001E-2</v>
+      </c>
+      <c r="BC116">
+        <v>60.5</v>
+      </c>
+      <c r="BD116">
+        <v>2.2339999999999999E-2</v>
+      </c>
+      <c r="BE116">
+        <v>30.16</v>
+      </c>
+      <c r="BF116">
+        <v>7.4075000000000002E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117">
+        <v>1.438E-3</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0.15992000000000001</v>
+      </c>
+      <c r="I117">
+        <v>0.24</v>
+      </c>
+      <c r="J117">
+        <v>67.328252000000006</v>
+      </c>
+      <c r="K117">
+        <v>99.74</v>
+      </c>
+      <c r="L117">
+        <v>1.6826000000000001E-2</v>
+      </c>
+      <c r="M117">
+        <v>0.02</v>
+      </c>
+      <c r="N117">
+        <v>67.506435999999994</v>
+      </c>
+      <c r="Q117">
+        <v>2.0170000000000001E-3</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>6.6302E-2</v>
+      </c>
+      <c r="T117">
+        <v>0.13</v>
+      </c>
+      <c r="U117">
+        <v>52.911650999999999</v>
+      </c>
+      <c r="V117">
+        <v>99.83</v>
+      </c>
+      <c r="W117">
+        <v>2.0889999999999999E-2</v>
+      </c>
+      <c r="X117">
+        <v>0.04</v>
+      </c>
+      <c r="Y117">
+        <v>53.000860000000003</v>
+      </c>
+      <c r="AB117">
+        <v>9.9586999999999995E-2</v>
+      </c>
+      <c r="AC117">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD117">
+        <v>5.0519000000000001E-2</v>
+      </c>
+      <c r="AE117">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF117">
+        <v>8.5118639999999992</v>
+      </c>
+      <c r="AG117">
+        <v>96.75</v>
+      </c>
+      <c r="AH117">
+        <v>0.13564000000000001</v>
+      </c>
+      <c r="AI117">
+        <v>1.54</v>
+      </c>
+      <c r="AJ117">
+        <v>8.7976099999999899</v>
+      </c>
+      <c r="AM117">
+        <v>0.103199</v>
+      </c>
+      <c r="AN117">
+        <v>8.26</v>
+      </c>
+      <c r="AO117">
+        <v>2.5170000000000001E-2</v>
+      </c>
+      <c r="AP117">
+        <v>2.02</v>
+      </c>
+      <c r="AQ117">
+        <v>0.830932</v>
+      </c>
+      <c r="AR117">
+        <v>66.53</v>
+      </c>
+      <c r="AS117">
+        <v>0.28972700000000001</v>
+      </c>
+      <c r="AT117">
+        <v>23.2</v>
+      </c>
+      <c r="AU117">
+        <v>1.249028</v>
+      </c>
+      <c r="AX117">
+        <v>2.0108999999999998E-2</v>
+      </c>
+      <c r="AY117">
+        <v>0.03</v>
+      </c>
+      <c r="AZ117">
+        <v>2.239E-2</v>
+      </c>
+      <c r="BA117">
+        <v>0.03</v>
+      </c>
+      <c r="BB117">
+        <v>65.996757000000002</v>
+      </c>
+      <c r="BC117">
+        <v>99.51</v>
+      </c>
+      <c r="BD117">
+        <v>0.28480499999999997</v>
+      </c>
+      <c r="BE117">
+        <v>0.43</v>
+      </c>
+      <c r="BF117">
+        <v>66.324061</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>70</v>
+      </c>
+      <c r="F125">
+        <v>15584</v>
+      </c>
+      <c r="G125">
+        <v>42.11</v>
+      </c>
+      <c r="H125">
+        <v>96</v>
+      </c>
+      <c r="I125">
+        <v>0.26</v>
+      </c>
+      <c r="J125">
+        <v>15488</v>
+      </c>
+      <c r="K125">
+        <v>41.85</v>
+      </c>
+      <c r="L125">
+        <v>5840</v>
+      </c>
+      <c r="M125">
+        <v>15.78</v>
+      </c>
+      <c r="N125">
+        <v>37008</v>
+      </c>
+      <c r="Q125">
+        <v>21552</v>
+      </c>
+      <c r="R125">
+        <v>41.14</v>
+      </c>
+      <c r="S125">
+        <v>144</v>
+      </c>
+      <c r="T125">
+        <v>0.27</v>
+      </c>
+      <c r="U125">
+        <v>22144</v>
+      </c>
+      <c r="V125">
+        <v>42.27</v>
+      </c>
+      <c r="W125">
+        <v>8544</v>
+      </c>
+      <c r="X125">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="Y125">
+        <v>52384</v>
+      </c>
+      <c r="AB125">
+        <v>21552</v>
+      </c>
+      <c r="AC125">
+        <v>41.19</v>
+      </c>
+      <c r="AD125">
+        <v>144</v>
+      </c>
+      <c r="AE125">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF125">
+        <v>22080</v>
+      </c>
+      <c r="AG125">
+        <v>42.2</v>
+      </c>
+      <c r="AH125">
+        <v>8544</v>
+      </c>
+      <c r="AI125">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="AJ125">
+        <v>52320</v>
+      </c>
+      <c r="AM125">
+        <v>21552</v>
+      </c>
+      <c r="AN125">
+        <v>41.19</v>
+      </c>
+      <c r="AO125">
+        <v>144</v>
+      </c>
+      <c r="AP125">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ125">
+        <v>22080</v>
+      </c>
+      <c r="AR125">
+        <v>42.2</v>
+      </c>
+      <c r="AS125">
+        <v>8544</v>
+      </c>
+      <c r="AT125">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="AU125">
+        <v>52320</v>
+      </c>
+      <c r="AX125">
+        <v>7056</v>
+      </c>
+      <c r="AY125">
+        <v>38.15</v>
+      </c>
+      <c r="AZ125">
+        <v>48</v>
+      </c>
+      <c r="BA125">
+        <v>0.26</v>
+      </c>
+      <c r="BB125">
+        <v>8688</v>
+      </c>
+      <c r="BC125">
+        <v>46.97</v>
+      </c>
+      <c r="BD125">
+        <v>2704</v>
+      </c>
+      <c r="BE125">
+        <v>14.62</v>
+      </c>
+      <c r="BF125">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126">
+        <v>146688</v>
+      </c>
+      <c r="G126">
+        <v>50.38</v>
+      </c>
+      <c r="H126">
+        <v>96</v>
+      </c>
+      <c r="I126">
+        <v>0.03</v>
+      </c>
+      <c r="J126">
+        <v>120256</v>
+      </c>
+      <c r="K126">
+        <v>41.3</v>
+      </c>
+      <c r="L126">
+        <v>24112</v>
+      </c>
+      <c r="M126">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="N126">
+        <v>291152</v>
+      </c>
+      <c r="Q126">
+        <v>451168</v>
+      </c>
+      <c r="R126">
+        <v>46.48</v>
+      </c>
+      <c r="S126">
+        <v>336</v>
+      </c>
+      <c r="T126">
+        <v>0.03</v>
+      </c>
+      <c r="U126">
+        <v>436800</v>
+      </c>
+      <c r="V126">
+        <v>45</v>
+      </c>
+      <c r="W126">
+        <v>82400</v>
+      </c>
+      <c r="X126">
+        <v>8.49</v>
+      </c>
+      <c r="Y126">
+        <v>970704</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>2108688</v>
+      </c>
+      <c r="AC126">
+        <v>45.06</v>
+      </c>
+      <c r="AD126">
+        <v>1488</v>
+      </c>
+      <c r="AE126">
+        <v>0.03</v>
+      </c>
+      <c r="AF126" s="2">
+        <v>2160064</v>
+      </c>
+      <c r="AG126">
+        <v>46.16</v>
+      </c>
+      <c r="AH126">
+        <v>409216</v>
+      </c>
+      <c r="AI126">
+        <v>8.74</v>
+      </c>
+      <c r="AJ126" s="2">
+        <v>4679456</v>
+      </c>
+      <c r="AM126" s="2">
+        <v>2269712</v>
+      </c>
+      <c r="AN126">
+        <v>45.01</v>
+      </c>
+      <c r="AO126">
+        <v>1680</v>
+      </c>
+      <c r="AP126">
+        <v>0.03</v>
+      </c>
+      <c r="AQ126" s="2">
+        <v>2328864</v>
+      </c>
+      <c r="AR126">
+        <v>46.18</v>
+      </c>
+      <c r="AS126">
+        <v>442736</v>
+      </c>
+      <c r="AT126">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AU126" s="2">
+        <v>5042992</v>
+      </c>
+      <c r="AX126" s="2">
+        <v>1563712</v>
+      </c>
+      <c r="AY126">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="AZ126">
+        <v>1584</v>
+      </c>
+      <c r="BA126">
+        <v>0.04</v>
+      </c>
+      <c r="BB126" s="2">
+        <v>1956096</v>
+      </c>
+      <c r="BC126">
+        <v>48.94</v>
+      </c>
+      <c r="BD126">
+        <v>475744</v>
+      </c>
+      <c r="BE126">
+        <v>11.9</v>
+      </c>
+      <c r="BF126" s="2">
+        <v>3997136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127">
+        <v>669312</v>
+      </c>
+      <c r="G127">
+        <v>54.06</v>
+      </c>
+      <c r="H127">
+        <v>96</v>
+      </c>
+      <c r="I127">
+        <v>0.01</v>
+      </c>
+      <c r="J127">
+        <v>492544</v>
+      </c>
+      <c r="K127">
+        <v>39.78</v>
+      </c>
+      <c r="L127">
+        <v>76128</v>
+      </c>
+      <c r="M127">
+        <v>6.15</v>
+      </c>
+      <c r="N127" s="2">
+        <v>1238080</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>2676896</v>
+      </c>
+      <c r="R127">
+        <v>48.29</v>
+      </c>
+      <c r="S127">
+        <v>432</v>
+      </c>
+      <c r="T127">
+        <v>0.01</v>
+      </c>
+      <c r="U127" s="2">
+        <v>2536704</v>
+      </c>
+      <c r="V127">
+        <v>45.76</v>
+      </c>
+      <c r="W127">
+        <v>329312</v>
+      </c>
+      <c r="X127">
+        <v>5.94</v>
+      </c>
+      <c r="Y127" s="2">
+        <v>5543344</v>
+      </c>
+      <c r="AB127" s="2">
+        <v>21096064</v>
+      </c>
+      <c r="AC127">
+        <v>46.47</v>
+      </c>
+      <c r="AD127">
+        <v>3312</v>
+      </c>
+      <c r="AE127">
+        <v>0.01</v>
+      </c>
+      <c r="AF127" s="2">
+        <v>21339584</v>
+      </c>
+      <c r="AG127">
+        <v>47.01</v>
+      </c>
+      <c r="AH127" s="2">
+        <v>2953472</v>
+      </c>
+      <c r="AI127">
+        <v>6.51</v>
+      </c>
+      <c r="AJ127" s="2">
+        <v>45392432</v>
+      </c>
+      <c r="AM127" s="2">
+        <v>33920112</v>
+      </c>
+      <c r="AN127">
+        <v>46.44</v>
+      </c>
+      <c r="AO127">
+        <v>5952</v>
+      </c>
+      <c r="AP127">
+        <v>0.01</v>
+      </c>
+      <c r="AQ127" s="2">
+        <v>34435840</v>
+      </c>
+      <c r="AR127">
+        <v>47.15</v>
+      </c>
+      <c r="AS127" s="2">
+        <v>4677440</v>
+      </c>
+      <c r="AT127">
+        <v>6.4</v>
+      </c>
+      <c r="AU127" s="2">
+        <v>73039344</v>
+      </c>
+      <c r="AX127" s="2">
+        <v>18450416</v>
+      </c>
+      <c r="AY127">
+        <v>39.39</v>
+      </c>
+      <c r="AZ127">
+        <v>6768</v>
+      </c>
+      <c r="BA127">
+        <v>0.01</v>
+      </c>
+      <c r="BB127" s="2">
+        <v>22347904</v>
+      </c>
+      <c r="BC127">
+        <v>47.71</v>
+      </c>
+      <c r="BD127" s="2">
+        <v>6037888</v>
+      </c>
+      <c r="BE127">
+        <v>12.89</v>
+      </c>
+      <c r="BF127" s="2">
+        <v>46842976</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>91782320</v>
+      </c>
+      <c r="R128">
+        <v>48.18</v>
+      </c>
+      <c r="S128">
+        <v>672</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128" s="2">
+        <v>86389568</v>
+      </c>
+      <c r="V128">
+        <v>45.35</v>
+      </c>
+      <c r="W128" s="2">
+        <v>12307344</v>
+      </c>
+      <c r="X128">
+        <v>6.46</v>
+      </c>
+      <c r="Y128" s="2">
+        <v>190479904</v>
+      </c>
+      <c r="AB128" s="2">
+        <v>2190135808</v>
+      </c>
+      <c r="AC128">
+        <v>46.03</v>
+      </c>
+      <c r="AD128">
+        <v>16864</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="2">
+        <v>2192050784</v>
+      </c>
+      <c r="AG128">
+        <v>46.07</v>
+      </c>
+      <c r="AH128" s="2">
+        <v>375672736</v>
+      </c>
+      <c r="AI128">
+        <v>7.9</v>
+      </c>
+      <c r="AJ128" s="2">
+        <v>4757876192</v>
+      </c>
+      <c r="AM128" s="2">
+        <v>7337464672</v>
+      </c>
+      <c r="AN128">
+        <v>45.77</v>
+      </c>
+      <c r="AO128">
+        <v>58000</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128" s="2">
+        <v>7359554080</v>
+      </c>
+      <c r="AR128">
+        <v>45.91</v>
+      </c>
+      <c r="AS128" s="2">
+        <v>1334819232</v>
+      </c>
+      <c r="AT128">
+        <v>8.33</v>
+      </c>
+      <c r="AU128" s="2">
+        <v>16031895984</v>
+      </c>
+      <c r="AX128" s="2">
+        <v>2031820912</v>
+      </c>
+      <c r="AY128">
+        <v>38.28</v>
+      </c>
+      <c r="AZ128">
+        <v>58448</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128" s="2">
+        <v>2194681984</v>
+      </c>
+      <c r="BC128">
+        <v>41.35</v>
+      </c>
+      <c r="BD128" s="2">
+        <v>1081488720</v>
+      </c>
+      <c r="BE128">
+        <v>20.37</v>
+      </c>
+      <c r="BF128" s="2">
+        <v>5308050064</v>
+      </c>
+    </row>
+    <row r="129" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>276032912</v>
+      </c>
+      <c r="R129">
+        <v>46.55</v>
+      </c>
+      <c r="S129">
+        <v>544</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129" s="2">
+        <v>278731840</v>
+      </c>
+      <c r="V129">
+        <v>47</v>
+      </c>
+      <c r="W129" s="2">
+        <v>38222176</v>
+      </c>
+      <c r="X129">
+        <v>6.45</v>
+      </c>
+      <c r="Y129" s="2">
+        <v>592987472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131">
+        <v>93280</v>
+      </c>
+      <c r="G131">
+        <v>52.33</v>
+      </c>
+      <c r="H131">
+        <v>96</v>
+      </c>
+      <c r="I131">
+        <v>0.05</v>
+      </c>
+      <c r="J131">
+        <v>74016</v>
+      </c>
+      <c r="K131">
+        <v>41.53</v>
+      </c>
+      <c r="L131">
+        <v>10848</v>
+      </c>
+      <c r="M131">
+        <v>6.09</v>
+      </c>
+      <c r="N131">
+        <v>178240</v>
+      </c>
+      <c r="Q131">
+        <v>174432</v>
+      </c>
+      <c r="R131">
+        <v>49.19</v>
+      </c>
+      <c r="S131">
+        <v>192</v>
+      </c>
+      <c r="T131">
+        <v>0.05</v>
+      </c>
+      <c r="U131">
+        <v>157824</v>
+      </c>
+      <c r="V131">
+        <v>44.51</v>
+      </c>
+      <c r="W131">
+        <v>22160</v>
+      </c>
+      <c r="X131">
+        <v>6.25</v>
+      </c>
+      <c r="Y131">
+        <v>354608</v>
+      </c>
+      <c r="AB131">
+        <v>468432</v>
+      </c>
+      <c r="AC131">
+        <v>47.29</v>
+      </c>
+      <c r="AD131">
+        <v>528</v>
+      </c>
+      <c r="AE131">
+        <v>0.05</v>
+      </c>
+      <c r="AF131">
+        <v>460192</v>
+      </c>
+      <c r="AG131">
+        <v>46.46</v>
+      </c>
+      <c r="AH131">
+        <v>61296</v>
+      </c>
+      <c r="AI131">
+        <v>6.19</v>
+      </c>
+      <c r="AJ131">
+        <v>990448</v>
+      </c>
+      <c r="AM131">
+        <v>709936</v>
+      </c>
+      <c r="AN131">
+        <v>47.1</v>
+      </c>
+      <c r="AO131">
+        <v>1008</v>
+      </c>
+      <c r="AP131">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ131">
+        <v>708160</v>
+      </c>
+      <c r="AR131">
+        <v>46.99</v>
+      </c>
+      <c r="AS131">
+        <v>88096</v>
+      </c>
+      <c r="AT131">
+        <v>5.85</v>
+      </c>
+      <c r="AU131" s="2">
+        <v>1507200</v>
+      </c>
+      <c r="AX131">
+        <v>540656</v>
+      </c>
+      <c r="AY131">
+        <v>42.97</v>
+      </c>
+      <c r="AZ131">
+        <v>912</v>
+      </c>
+      <c r="BA131">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB131">
+        <v>617856</v>
+      </c>
+      <c r="BC131">
+        <v>49.1</v>
+      </c>
+      <c r="BD131">
+        <v>98832</v>
+      </c>
+      <c r="BE131">
+        <v>7.85</v>
+      </c>
+      <c r="BF131" s="2">
+        <v>1258256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132">
+        <v>325168</v>
+      </c>
+      <c r="G132">
+        <v>55.45</v>
+      </c>
+      <c r="H132">
+        <v>96</v>
+      </c>
+      <c r="I132">
+        <v>0.02</v>
+      </c>
+      <c r="J132">
+        <v>238304</v>
+      </c>
+      <c r="K132">
+        <v>40.64</v>
+      </c>
+      <c r="L132">
+        <v>22880</v>
+      </c>
+      <c r="M132">
+        <v>3.9</v>
+      </c>
+      <c r="N132">
+        <v>586448</v>
+      </c>
+      <c r="Q132">
+        <v>569888</v>
+      </c>
+      <c r="R132">
+        <v>51.83</v>
+      </c>
+      <c r="S132">
+        <v>192</v>
+      </c>
+      <c r="T132">
+        <v>0.02</v>
+      </c>
+      <c r="U132">
+        <v>486176</v>
+      </c>
+      <c r="V132">
+        <v>44.21</v>
+      </c>
+      <c r="W132">
+        <v>43360</v>
+      </c>
+      <c r="X132">
+        <v>3.94</v>
+      </c>
+      <c r="Y132" s="2">
+        <v>1099616</v>
+      </c>
+      <c r="AB132" s="2">
+        <v>2637632</v>
+      </c>
+      <c r="AC132">
+        <v>48.44</v>
+      </c>
+      <c r="AD132">
+        <v>816</v>
+      </c>
+      <c r="AE132">
+        <v>0.01</v>
+      </c>
+      <c r="AF132" s="2">
+        <v>2583072</v>
+      </c>
+      <c r="AG132">
+        <v>47.44</v>
+      </c>
+      <c r="AH132">
+        <v>223776</v>
+      </c>
+      <c r="AI132">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AJ132" s="2">
+        <v>5445296</v>
+      </c>
+      <c r="AM132" s="2">
+        <v>4880160</v>
+      </c>
+      <c r="AN132">
+        <v>48.21</v>
+      </c>
+      <c r="AO132">
+        <v>1680</v>
+      </c>
+      <c r="AP132">
+        <v>0.02</v>
+      </c>
+      <c r="AQ132" s="2">
+        <v>4857216</v>
+      </c>
+      <c r="AR132">
+        <v>47.99</v>
+      </c>
+      <c r="AS132">
+        <v>383040</v>
+      </c>
+      <c r="AT132">
+        <v>3.78</v>
+      </c>
+      <c r="AU132" s="2">
+        <v>10122096</v>
+      </c>
+      <c r="AX132" s="2">
+        <v>4474704</v>
+      </c>
+      <c r="AY132">
+        <v>45.45</v>
+      </c>
+      <c r="AZ132">
+        <v>2688</v>
+      </c>
+      <c r="BA132">
+        <v>0.03</v>
+      </c>
+      <c r="BB132" s="2">
+        <v>4788064</v>
+      </c>
+      <c r="BC132">
+        <v>48.63</v>
+      </c>
+      <c r="BD132">
+        <v>579520</v>
+      </c>
+      <c r="BE132">
+        <v>5.89</v>
+      </c>
+      <c r="BF132" s="2">
+        <v>9844976</v>
+      </c>
+    </row>
+    <row r="133" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1241056</v>
+      </c>
+      <c r="G133">
+        <v>57.14</v>
+      </c>
+      <c r="H133">
+        <v>96</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>869152</v>
+      </c>
+      <c r="K133">
+        <v>40.01</v>
+      </c>
+      <c r="L133">
+        <v>61776</v>
+      </c>
+      <c r="M133">
+        <v>2.84</v>
+      </c>
+      <c r="N133" s="2">
+        <v>2172080</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>2116880</v>
+      </c>
+      <c r="R133">
+        <v>53.32</v>
+      </c>
+      <c r="S133">
+        <v>192</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133" s="2">
+        <v>1743456</v>
+      </c>
+      <c r="V133">
+        <v>43.91</v>
+      </c>
+      <c r="W133">
+        <v>109984</v>
+      </c>
+      <c r="X133">
+        <v>2.77</v>
+      </c>
+      <c r="Y133" s="2">
+        <v>3970512</v>
+      </c>
+      <c r="AB133" s="2">
+        <v>9934080</v>
+      </c>
+      <c r="AC133">
+        <v>49.45</v>
+      </c>
+      <c r="AD133">
+        <v>816</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="2">
+        <v>9574096</v>
+      </c>
+      <c r="AG133">
+        <v>47.65</v>
+      </c>
+      <c r="AH133">
+        <v>581616</v>
+      </c>
+      <c r="AI133">
+        <v>2.89</v>
+      </c>
+      <c r="AJ133" s="2">
+        <v>20090608</v>
+      </c>
+      <c r="AM133" s="2">
+        <v>27534704</v>
+      </c>
+      <c r="AN133">
+        <v>48.93</v>
+      </c>
+      <c r="AO133">
+        <v>2208</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="2">
+        <v>27288816</v>
+      </c>
+      <c r="AR133">
+        <v>48.49</v>
+      </c>
+      <c r="AS133" s="2">
+        <v>1452576</v>
+      </c>
+      <c r="AT133">
+        <v>2.58</v>
+      </c>
+      <c r="AU133" s="2">
+        <v>56278304</v>
+      </c>
+      <c r="AX133" s="2">
+        <v>33191632</v>
+      </c>
+      <c r="AY133">
+        <v>46.7</v>
+      </c>
+      <c r="AZ133">
+        <v>4752</v>
+      </c>
+      <c r="BA133">
+        <v>0.01</v>
+      </c>
+      <c r="BB133" s="2">
+        <v>34429536</v>
+      </c>
+      <c r="BC133">
+        <v>48.44</v>
+      </c>
+      <c r="BD133" s="2">
+        <v>3455424</v>
+      </c>
+      <c r="BE133">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="BF133" s="2">
+        <v>71081344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -17226,41 +20633,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B896CDA-440A-464C-AEC8-C5DEF6B3217D}">
   <dimension ref="B5:AE34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="V5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AB5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>3.2820229999999998E-3</v>
@@ -17343,7 +20750,7 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>0.34125442900000003</v>
@@ -17426,7 +20833,7 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>40.166233249000001</v>
@@ -17509,7 +20916,7 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>2.6088349999999999E-3</v>
@@ -17592,7 +20999,7 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>3.6751739999999998E-3</v>
@@ -17675,7 +21082,7 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>0.178939388</v>
@@ -17758,7 +21165,7 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1.2560879579999999</v>
@@ -17841,7 +21248,7 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>398.10820482600002</v>
@@ -17924,7 +21331,7 @@
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>2.6012237030000001</v>
@@ -18007,7 +21414,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>306472</v>
@@ -18066,7 +21473,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>946424</v>
@@ -18125,7 +21532,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
         <v>164920832</v>
@@ -18184,7 +21591,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>406848</v>
@@ -18243,7 +21650,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>447608</v>
@@ -18302,7 +21709,7 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
         <v>1908296</v>
@@ -18361,7 +21768,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
         <v>15139440</v>
@@ -18420,7 +21827,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2">
         <v>97317390</v>
@@ -18479,7 +21886,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2">
         <v>2856568</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JordiWelp/Desktop/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38838C-932B-1C40-8662-E552D7EBA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79451E-6939-6446-B05B-BBC63E438E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="9" r:id="rId1"/>
@@ -728,7 +728,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> der Polynomring über dem Körper Z/32003Z zugrunde.</a:t>
+            <a:t> ein Polynomring über dem Körper Z/32003Z zugrunde.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -753,7 +753,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Die Seiten der Excel-Tabelle haben folgende Inahlte:</a:t>
+            <a:t>Die Seiten der Excel-Tabelle haben folgende Inhalte:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1055,7 +1055,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1064,34 +1064,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Prototypisch wird ein Ideal mit 3 Variablen, unterer </a:t>
+            <a:t>Prototypisch wird ein Ideal mit 3 Variablen, unterer Gradgrenze von 1,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Gradgrenze</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> von 1,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1103,7 +1079,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1112,58 +1088,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>oberer </a:t>
+            <a:t>oberer Gradgrenze von 5 und Sparsity von 50</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Gradgrenze</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> von 5 und </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sparsity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> von 50</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1175,7 +1103,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1187,7 +1115,7 @@
             <a:t>%</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1199,7 +1127,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1212,7 +1140,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="de-DE" sz="1400">
+          <a:endParaRPr lang="de-DE" sz="1400" u="none">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1224,7 +1152,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1233,22 +1161,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Der klassische </a:t>
+            <a:t>Der klassische Gröbner Walk wird</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Gröbner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1260,7 +1176,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1269,22 +1185,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Walk</a:t>
+            <a:t>mit sWalk,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> wird</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1296,7 +1200,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1305,10 +1209,34 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>mit sWalk,</a:t>
+            <a:t>der vom Pertubationsgrad p pertubierte Gröbner Walk wird mit </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Walk(p), der Algorithmus von Tran wird</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1320,7 +1248,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1329,46 +1257,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>der vom </a:t>
+            <a:t>mit tWalk,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Pertubationsgrad</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> p </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>pertubierte</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
+            <a:rPr lang="de-DE" sz="1400" u="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1380,7 +1272,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
+            <a:rPr lang="de-DE" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1389,187 +1281,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Gröbner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Walk wird </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>mit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>p</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Walk(p), der Algorithmus von Tran wird</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>mit tWalk,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>der Fraktal </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Walk</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> wird mit fWalk und der generische </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Gröbner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Walk</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> mit gWalk bezeichnet. </a:t>
+            <a:t>der Fraktal Walk wird mit fWalk und der generische Gröbner Walk mit gWalk bezeichnet. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1606,7 +1318,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> Werte der Einträge der Exponenten abgebrochen sind, werden mit "int32" markiert.</a:t>
+            <a:t> Werte der Einträge der Exponenten abgebrochen sind, werden mit "int32" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1620,7 +1332,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Testläufe, die aufgrund von Speicherüberlaufen abgebrochen sind, werden mit "Memory" gekennzeichnet.</a:t>
+            <a:t>Testläufe, die aufgrund von Speicherüberlaufen abgebrochen sind, werden mit "Memory" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1634,17 +1346,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Testläufe, die nach einer Zeit t manuell abgebrochen wurden, werden mit "&gt;t" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. Der Speicherverbrauch wird in diesen Fällen nicht aufgeführt.</a:t>
+            <a:t>Testläufe, die nach einer Zeit t manuell abgebrochen wurden, werden mit "&gt;t" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. </a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Die Auflistung der Prozeduren und des Speicherverberauchs erfolgt ausschließlich, wenn der Testlauf erfolgreich beendet wurde.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2141,7 +1858,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1200" baseline="0"/>
-            <a:t> Tabelle zeigt für einige getestete Ideale die Gesamtlaufzeit und die Laufzeit für den letzten Schritt im klassischen Gröbner Walk.</a:t>
+            <a:t> Tabelle zeigt für einige getestete Ideale die Gesamtlaufzeit und die Laufzeit für den letzten Schritt im sWalk.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2625,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E876CD4B-5EE9-644E-AE23-E2A0D58D51C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6223,7 +5940,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A6:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7875,7 +7592,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A5:CC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -16521,7 +16238,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A8:CC68"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="75" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -25656,7 +25373,7 @@
   <dimension ref="A5:P7"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25756,7 +25473,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -25810,8 +25527,8 @@
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A7:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JordiWelp/Desktop/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79451E-6939-6446-B05B-BBC63E438E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCEAE7-97B2-6345-BBBF-F3EB3CD36E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SerienGesamtSpeicher" sheetId="6" r:id="rId3"/>
     <sheet name="SerienProzedurenLaufzeit" sheetId="3" r:id="rId4"/>
     <sheet name="SerienProzedurenSpeicher" sheetId="7" r:id="rId5"/>
-    <sheet name="FGLM und stdHilb" sheetId="4" r:id="rId6"/>
+    <sheet name="stdfglm und stdhilb" sheetId="4" r:id="rId6"/>
     <sheet name="Letzter Schritt im Walk" sheetId="5" r:id="rId7"/>
     <sheet name="NextWeight" sheetId="8" r:id="rId8"/>
     <sheet name="Allgemeine Beispiele" sheetId="2" r:id="rId9"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="149">
   <si>
     <t>LexBasis</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>cyclic5</t>
-  </si>
-  <si>
-    <t>FGLM</t>
   </si>
   <si>
     <t>0,000&gt;</t>
@@ -450,9 +447,6 @@
     <t>tWalk</t>
   </si>
   <si>
-    <t>stdHilb</t>
-  </si>
-  <si>
     <t>Summe der Prozeduren</t>
   </si>
   <si>
@@ -484,6 +478,18 @@
   </si>
   <si>
     <t>Basis bzgl. grlex</t>
+  </si>
+  <si>
+    <t>std - grlex</t>
+  </si>
+  <si>
+    <t>std - lex</t>
+  </si>
+  <si>
+    <t>stdfglm</t>
+  </si>
+  <si>
+    <t>stdhilb</t>
   </si>
 </sst>
 </file>
@@ -769,6 +775,9 @@
         </a:p>
         <a:p>
           <a:pPr marL="171450" indent="-171450">
+            <a:spcBef>
+              <a:spcPts val="600"/>
+            </a:spcBef>
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
           </a:pPr>
@@ -782,7 +791,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SerienGesamtLaufzeit: Auflistung der Gesamtlaufzeiten der Varianten des Gröbner Walks und der Buchberger-Algorithmen (std für Start- und Ziel-Monomordnung) , sowie Eigenschaften der Gröbnerbasis bezüglich der Start-und Ziel-Monomordnung und der Anzahl an Schritten in den jeweiligen Testläufen.</a:t>
+            <a:t>SerienGesamtLaufzeit: Auflistung der Gesamtlaufzeiten der Varianten des Gröbner Walks und des Buchberger-Algorithmus (std für Start- und Ziel-Monomordnung), sowie Eigenschaften der Gröbnerbasis bezüglich der Start- und Ziel-Monomordnung und der Anzahl an Schritten in den jeweiligen Testläufen.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -791,7 +800,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -813,7 +822,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SerienGesamtSpeicher: Auflistung des gesamten Speicherberauchs der Varianten des Gröbner Walks.</a:t>
+            <a:t>SerienGesamtSpeicher: Auflistung des gesamten Speicherverbrauchs der Varianten des Gröbner Walks.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -822,7 +831,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -844,7 +853,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SerienProzedurenLaufzeit: Auflistung der Laufzeiten der einzelnen Prozeduren der Gröbner Walk Algorithmen, die Summe der gemessenen Laufzeiten der Prozeduren und die Gesamtlaufzeit des jeweiligen Testlaufs.</a:t>
+            <a:t>SerienProzedurenLaufzeit: Auflistung der Laufzeiten der einzelnen Prozeduren der Gröbner Walk Algorithmen, dessen jeweilige Summe der Prozeduren und die Gesamtlaufzeit des jeweiligen Testlaufs.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -853,7 +862,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -875,7 +884,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SerienProzedurenSpeicher: Auflistung des Speicherverbrauchs der einzelnen Prozeduren der Gröbner Walk Algorithmen, die Summe der gemessenen Prozeduren und die Gesamtlaufzeit des jeweiligen Testlaufs.</a:t>
+            <a:t>SerienProzedurenSpeicher: Auflistung des Speicherverbrauchs der einzelnen Prozeduren der Gröbner Walk Algorithmen, der jeweiligen Summe der Prozeduren und der Gesamtlaufzeit des jeweiligen Testlaufs.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -884,7 +893,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -906,7 +915,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>FGLM und stdHilb: Vergleich der Gesamtlaufzeiten der Gröbner Walk Algorithmen mit den stdHilb und FGLM Algorithmen.</a:t>
+            <a:t>FGLM und stdHilb: Vergleich der Gesamtlaufzeiten der Gröbner Walk Algorithmen mit den stdhilb und stdfglm Algorithmen.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -915,7 +924,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -946,7 +955,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -977,7 +986,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:spcBef>
-              <a:spcPts val="0"/>
+              <a:spcPts val="600"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
@@ -1332,7 +1341,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Testläufe, die aufgrund von Speicherüberlaufen abgebrochen sind, werden mit "Memory" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. </a:t>
+            <a:t>Testläufe, die aufgrund von Speicherüberläufen abgebrochen sind, werden mit "Memory" in der zur Laufzeit zugehörigen Tabelle gekennzeichnet. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1360,7 +1369,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Die Auflistung der Prozeduren und des Speicherverberauchs erfolgt ausschließlich, wenn der Testlauf erfolgreich beendet wurde.</a:t>
+            <a:t>Die Auflistung der Prozeduren und des Speicherverbrauchs erfolgt ausschließlich, wenn der Testlauf erfolgreich beendet wurde.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1382,8 +1391,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>18185</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108325</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1398,8 +1407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="841591" y="12476"/>
-          <a:ext cx="12351099" cy="514530"/>
+          <a:off x="847917" y="12476"/>
+          <a:ext cx="12446001" cy="800324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,17 +1443,17 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
+            <a:rPr lang="de-DE" sz="1400"/>
             <a:t>Diese</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
             <a:t> Tabelle zeigt die Laufzeiten und die Anzahl der Schritte der einzelnen Strategien der Serien 1-4, Katsura-n und Cyclic-n.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
             <a:t>Außerdem sind die Eigenschaften der Gröbnerbasen bezüglich grlex und lex aufgelistet.</a:t>
           </a:r>
         </a:p>
@@ -1522,11 +1531,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
+            <a:rPr lang="de-DE" sz="1200"/>
             <a:t>Diese</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
             <a:t> Tabelle zeigt den Speicherverbrauch der einzelnen Strategien des Gröbner Walk der Serien 1-4, Katsura-n und Cyclic-n.</a:t>
           </a:r>
         </a:p>
@@ -1550,10 +1559,10 @@
       <xdr:rowOff>182881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15679</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>20321</xdr:rowOff>
+      <xdr:rowOff>31359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1568,8 +1577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833121" y="182881"/>
-          <a:ext cx="7985760" cy="447040"/>
+          <a:off x="841149" y="182881"/>
+          <a:ext cx="10024407" cy="459959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,11 +1613,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
+            <a:rPr lang="de-DE" sz="1200"/>
             <a:t>Diese</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
             <a:t> Tabelle zeigt die Laufzeiten der einzelnen Prozeduren für die jeweilige Strategie des Gröbner Walk für die Serien 1-4, Katsura-n und Cyclic-n.</a:t>
           </a:r>
         </a:p>
@@ -1638,7 +1647,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>16933</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1654,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="825770" y="206624"/>
-          <a:ext cx="11637163" cy="419909"/>
+          <a:ext cx="11637163" cy="572309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,7 +1785,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1200" baseline="0"/>
-            <a:t> Tabellen zeigen die Laufzeiten für die jeweiligen Strategien des Gröbner Walk im Vergleich zu den Algorithmen FGLM und stdHilb.</a:t>
+            <a:t> Tabellen zeigen die Laufzeiten für die jeweiligen Strategien des Gröbner Walk im Vergleich zu den Algorithmen stdfglm und stdhilb.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2022,10 +2031,8 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> Tabellen zeigen die Laufzeiten und den Speicherbedarf für die Strategien des Gröbner Walks für einige zusätzlich getestete Ideale in Z/32003Z.</a:t>
+            <a:t> Tabellen zeigen die Laufzeiten und den Speicherbedarf für die Strategien des Gröbner Walks für einige zusätzlich getestete Ideale. </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
             <a:t>Außerdem sind die Eigenschaften der Gröbnerbasen</a:t>
@@ -2342,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E876CD4B-5EE9-644E-AE23-E2A0D58D51C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -2359,17 +2366,17 @@
   <dimension ref="A6:AN147"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -2380,12 +2387,12 @@
         <v>29</v>
       </c>
       <c r="AA7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -2398,34 +2405,34 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="K8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
@@ -2438,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
@@ -2451,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
@@ -2481,7 +2488,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2561,7 +2568,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2641,7 +2648,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2721,7 +2728,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2801,7 +2808,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2881,7 +2888,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2961,7 +2968,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3041,7 +3048,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3121,7 +3128,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3201,7 +3208,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3281,7 +3288,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -3355,7 +3362,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3432,7 +3439,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -3506,7 +3513,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -3583,7 +3590,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -3657,7 +3664,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3731,7 +3738,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3805,7 +3812,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3879,7 +3886,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -3953,7 +3960,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4027,7 +4034,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -4113,7 +4120,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -4199,7 +4206,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -4282,7 +4289,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4365,7 +4372,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4445,7 +4452,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -4528,7 +4535,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4608,7 +4615,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4688,7 +4695,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -4765,7 +4772,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -4842,7 +4849,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4872,7 +4879,7 @@
         <v>1.3813700000000001E-4</v>
       </c>
       <c r="O48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -4913,7 +4920,7 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4943,7 +4950,7 @@
         <v>1.560482E-3</v>
       </c>
       <c r="O49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -4984,7 +4991,7 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -5061,7 +5068,7 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -5094,7 +5101,7 @@
         <v>1.4449600000000001E-4</v>
       </c>
       <c r="O51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q51">
         <v>17</v>
@@ -5135,7 +5142,7 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -5147,28 +5154,28 @@
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.2">
@@ -5184,43 +5191,43 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>13</v>
@@ -5373,7 +5380,7 @@
         <v>4.0244861999999999E-2</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N61">
         <v>4.2166679999999998E-2</v>
@@ -5382,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q61">
         <v>1.5855509999999999E-3</v>
@@ -5450,10 +5457,10 @@
         <v>1.127418531</v>
       </c>
       <c r="J62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N62">
         <v>0.83391266399999997</v>
@@ -5462,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q62">
         <v>2.1126896999999999E-2</v>
@@ -5518,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63">
         <v>71.303005471000006</v>
@@ -5530,13 +5537,13 @@
         <v>895.35408393</v>
       </c>
       <c r="J63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N63">
         <v>237.52337429100001</v>
@@ -5545,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q63">
         <v>3.5698467950000001</v>
@@ -5568,42 +5575,42 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5621,7 +5628,7 @@
         <v>9.6637440000000002E-3</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N65">
         <v>1.0383543E-2</v>
@@ -5630,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q65">
         <v>6.4196999999999995E-4</v>
@@ -5698,10 +5705,10 @@
         <v>0.105050222</v>
       </c>
       <c r="J66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N66">
         <v>9.5623037999999994E-2</v>
@@ -5710,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q66">
         <v>3.4218529999999999E-3</v>
@@ -5778,13 +5785,13 @@
         <v>1.4044816840000001</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N67">
         <v>67.858772004000002</v>
@@ -5793,13 +5800,13 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q67">
         <v>2.7592098999999998E-2</v>
       </c>
       <c r="R67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T67">
         <v>7</v>
@@ -5843,49 +5850,49 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q68">
         <v>0.28639540699999999</v>
       </c>
       <c r="R68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="40:40" x14ac:dyDescent="0.2">
@@ -5940,23 +5947,23 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A6:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -5969,39 +5976,39 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="K8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6039,7 +6046,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6077,7 +6084,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -6115,7 +6122,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6153,7 +6160,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6191,7 +6198,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -6229,7 +6236,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6267,7 +6274,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -6305,7 +6312,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6343,7 +6350,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6381,7 +6388,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -6416,7 +6423,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -6454,7 +6461,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -6489,7 +6496,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -6527,7 +6534,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -6562,7 +6569,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6597,7 +6604,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -6632,7 +6639,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -6667,7 +6674,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6702,7 +6709,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -6737,7 +6744,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -6778,7 +6785,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6819,7 +6826,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6858,7 +6865,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6897,7 +6904,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -6936,7 +6943,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6975,7 +6982,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7014,7 +7021,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7053,7 +7060,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7092,7 +7099,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7131,7 +7138,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -7157,7 +7164,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -7186,7 +7193,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -7218,7 +7225,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -7233,7 +7240,7 @@
         <v>1901889448</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H51" s="2">
         <v>85046948672</v>
@@ -7251,7 +7258,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -7272,43 +7279,43 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>13</v>
@@ -7363,7 +7370,7 @@
         <v>8909528</v>
       </c>
       <c r="J58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N58" s="2">
         <v>9085784</v>
@@ -7392,10 +7399,10 @@
         <v>124464896</v>
       </c>
       <c r="J59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N59" s="2">
         <v>96869861</v>
@@ -7424,13 +7431,13 @@
         <v>26712460616</v>
       </c>
       <c r="J60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N60" s="2">
         <v>8990290048</v>
@@ -7441,27 +7448,27 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7479,7 +7486,7 @@
         <v>3022152</v>
       </c>
       <c r="J63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N63" s="2">
         <v>3676192</v>
@@ -7508,10 +7515,10 @@
         <v>18220368</v>
       </c>
       <c r="J64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N64" s="2">
         <v>23246864</v>
@@ -7540,13 +7547,13 @@
         <v>99509360</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N65" s="2">
         <v>148196440</v>
@@ -7557,22 +7564,22 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -7592,8 +7599,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A5:CC66"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="81" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7668,21 +7675,21 @@
   <sheetData>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="AB6" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -7694,7 +7701,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AM6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
@@ -7706,7 +7713,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AX6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
@@ -7718,7 +7725,7 @@
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
       <c r="BI6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
@@ -7731,7 +7738,7 @@
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
       <c r="BT6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
@@ -7741,7 +7748,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -7809,7 +7816,7 @@
         <v>23</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>28</v>
@@ -7970,7 +7977,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -8164,7 +8171,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -8358,7 +8365,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8552,7 +8559,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8746,7 +8753,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8940,7 +8947,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -9134,7 +9141,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -9328,7 +9335,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -9522,7 +9529,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -9716,7 +9723,7 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -9913,7 +9920,7 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -10107,7 +10114,7 @@
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -10301,7 +10308,7 @@
     </row>
     <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -10495,7 +10502,7 @@
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -10689,7 +10696,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -10883,7 +10890,7 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11077,7 +11084,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -11271,7 +11278,7 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -11465,7 +11472,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -11659,7 +11666,7 @@
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -11853,7 +11860,7 @@
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -12077,7 +12084,7 @@
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12301,7 +12308,7 @@
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -12525,7 +12532,7 @@
     </row>
     <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -12749,7 +12756,7 @@
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -12950,7 +12957,7 @@
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -13174,7 +13181,7 @@
     </row>
     <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -13375,7 +13382,7 @@
     </row>
     <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -13576,7 +13583,7 @@
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -13777,7 +13784,7 @@
     </row>
     <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -13978,7 +13985,7 @@
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -14149,7 +14156,7 @@
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -14320,7 +14327,7 @@
     </row>
     <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -14514,7 +14521,7 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -14685,7 +14692,7 @@
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -14724,7 +14731,7 @@
         <v>2786.4179179999901</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q50">
         <v>1.2711999999999999E-2</v>
@@ -14754,14 +14761,14 @@
         <v>0.285773</v>
       </c>
       <c r="Z50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AX50" s="6"/>
       <c r="BG50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BI50">
         <v>1.936E-3</v>
@@ -14791,7 +14798,7 @@
         <v>3.0182E-2</v>
       </c>
       <c r="BR50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.2">
@@ -14802,13 +14809,13 @@
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q56" t="s">
         <v>124</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="AB56" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AB56" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
@@ -14820,7 +14827,7 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AM56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
@@ -14832,7 +14839,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
       <c r="AX56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY56" s="3"/>
       <c r="AZ56" s="3"/>
@@ -14844,7 +14851,7 @@
       <c r="BF56" s="3"/>
       <c r="BG56" s="3"/>
       <c r="BI56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
@@ -14857,7 +14864,7 @@
       <c r="BR56" s="3"/>
       <c r="BS56" s="3"/>
       <c r="BT56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BV56" s="3"/>
       <c r="BW56" s="3"/>
@@ -14867,7 +14874,7 @@
     </row>
     <row r="57" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -15544,7 +15551,7 @@
       <c r="K61" s="4"/>
       <c r="M61" s="4"/>
       <c r="O61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q61">
         <v>0.62909999999999999</v>
@@ -15669,7 +15676,7 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -15679,7 +15686,7 @@
       <c r="K62" s="4"/>
       <c r="M62" s="4"/>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q62">
         <v>0.47277599999999997</v>
@@ -15709,21 +15716,21 @@
         <v>86.965058999999997</v>
       </c>
       <c r="Z62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AG62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AK62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN62" s="4"/>
       <c r="AP62" s="4"/>
       <c r="AR62" s="4"/>
       <c r="AT62" s="4"/>
       <c r="AV62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AY62" s="4"/>
       <c r="BA62" s="4"/>
@@ -15732,7 +15739,7 @@
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -16206,25 +16213,25 @@
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="O66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AV66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -16238,7 +16245,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A8:CC68"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -16246,21 +16253,21 @@
   <sheetData>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="AB10" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -16272,7 +16279,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AM10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
@@ -16284,7 +16291,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AX10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
@@ -16296,7 +16303,7 @@
       <c r="BF10" s="3"/>
       <c r="BG10" s="3"/>
       <c r="BI10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
@@ -16309,7 +16316,7 @@
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
       <c r="BT10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
@@ -16319,7 +16326,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -16547,7 +16554,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -16741,7 +16748,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -16935,7 +16942,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -17129,7 +17136,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -17323,7 +17330,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -17517,7 +17524,7 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -17711,7 +17718,7 @@
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -17905,7 +17912,7 @@
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -18099,7 +18106,7 @@
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -18293,7 +18300,7 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -18487,7 +18494,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -18646,7 +18653,7 @@
         <v>338937264</v>
       </c>
       <c r="BR25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT25" s="2">
         <v>300149968</v>
@@ -18681,7 +18688,7 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -18875,7 +18882,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -19069,7 +19076,7 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19263,7 +19270,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -19422,7 +19429,7 @@
         <v>772678944</v>
       </c>
       <c r="BR29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT29" s="2">
         <v>1226121200</v>
@@ -19457,7 +19464,7 @@
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -19616,7 +19623,7 @@
         <v>766722560</v>
       </c>
       <c r="BR30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT30" s="2">
         <v>1226553968</v>
@@ -19651,7 +19658,7 @@
     </row>
     <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -19810,7 +19817,7 @@
         <v>774642432</v>
       </c>
       <c r="BR31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT31" s="2">
         <v>1227875856</v>
@@ -19845,7 +19852,7 @@
     </row>
     <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -20004,7 +20011,7 @@
         <v>774887792</v>
       </c>
       <c r="BR32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT32" s="2">
         <v>1228123536</v>
@@ -20039,7 +20046,7 @@
     </row>
     <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -20198,7 +20205,7 @@
         <v>774859712</v>
       </c>
       <c r="BR33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT33" s="2">
         <v>1228097616</v>
@@ -20233,7 +20240,7 @@
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -20392,7 +20399,7 @@
         <v>774929280</v>
       </c>
       <c r="BR34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT34" s="2">
         <v>1228151760</v>
@@ -20427,7 +20434,7 @@
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -20648,7 +20655,7 @@
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -20869,7 +20876,7 @@
     </row>
     <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -21055,7 +21062,7 @@
         <v>8125376</v>
       </c>
       <c r="BR40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT40" s="2">
         <v>105380704</v>
@@ -21090,7 +21097,7 @@
     </row>
     <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -21276,7 +21283,7 @@
         <v>2935616</v>
       </c>
       <c r="BR41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT41" s="2">
         <v>18054896</v>
@@ -21311,7 +21318,7 @@
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -21474,7 +21481,7 @@
         <v>24829104</v>
       </c>
       <c r="BR42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT42" s="2">
         <v>1975115552</v>
@@ -21509,7 +21516,7 @@
     </row>
     <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -21695,7 +21702,7 @@
         <v>30286624</v>
       </c>
       <c r="BR43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT43" s="2">
         <v>1925500496</v>
@@ -21730,7 +21737,7 @@
     </row>
     <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -21893,7 +21900,7 @@
         <v>30827056</v>
       </c>
       <c r="BR44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT44" s="2">
         <v>2038597472</v>
@@ -21928,7 +21935,7 @@
     </row>
     <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -22091,7 +22098,7 @@
         <v>31039632</v>
       </c>
       <c r="BR45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT45" s="2">
         <v>2054528480</v>
@@ -22126,7 +22133,7 @@
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -22289,7 +22296,7 @@
         <v>31042192</v>
       </c>
       <c r="BR46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT46" s="2">
         <v>2039433504</v>
@@ -22324,7 +22331,7 @@
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -22487,7 +22494,7 @@
         <v>31065008</v>
       </c>
       <c r="BR47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BT47" s="2">
         <v>2054436064</v>
@@ -22522,7 +22529,7 @@
     </row>
     <row r="50" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -22656,7 +22663,7 @@
     </row>
     <row r="51" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -22790,7 +22797,7 @@
     </row>
     <row r="52" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -22981,7 +22988,7 @@
     </row>
     <row r="53" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -23030,7 +23037,7 @@
       <c r="V53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Z53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB53" s="2">
         <v>24156589440</v>
@@ -23104,7 +23111,7 @@
     </row>
     <row r="54" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -23769,7 +23776,7 @@
     </row>
     <row r="63" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -23804,7 +23811,7 @@
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -24278,7 +24285,7 @@
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -24311,7 +24318,7 @@
   <dimension ref="A5:Y26"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24321,84 +24328,84 @@
   <sheetData>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="V7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -24421,10 +24428,10 @@
         <v>6.0179313999999998E-2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -24450,7 +24457,7 @@
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y8" s="3">
         <v>0.02</v>
@@ -24479,7 +24486,7 @@
         <v>8.3698209999999995E-3</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -24508,7 +24515,7 @@
         <v>0.12475796</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -24534,7 +24541,7 @@
         <v>1.927397E-3</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -24563,7 +24570,7 @@
         <v>5.3353899999999998E-3</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -24586,7 +24593,7 @@
         <v>1.6805559999999999E-3</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -24613,7 +24620,7 @@
         <v>3.4306300000000001E-3</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -24636,19 +24643,19 @@
         <v>0.47663345699999998</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>0.67795806700000005</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -24670,17 +24677,17 @@
         <v>583.23256000000003</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V12" s="3">
         <v>1117.3842099999999</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="3">
         <v>11.63</v>
@@ -24706,7 +24713,7 @@
         <v>9.307899E-2</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -24753,16 +24760,16 @@
         <v>1.989958015</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <v>1.405294378</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="3">
         <v>0.01</v>
@@ -24784,10 +24791,10 @@
         <v>33.693612600000002</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3">
@@ -24795,7 +24802,7 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="3">
         <v>0.14000000000000001</v>
@@ -24827,7 +24834,7 @@
         <v>8.4064020000000003E-3</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -24856,7 +24863,7 @@
         <v>0.12618145</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -24936,31 +24943,31 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -25003,7 +25010,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3">
         <v>57.869478800000003</v>
@@ -25018,14 +25025,14 @@
         <v>1330.11896</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3">
         <v>76.348035699999997</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -25044,7 +25051,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3">
         <v>1.8230630000000001E-2</v>
@@ -25083,7 +25090,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3">
         <v>7.8574600000000001E-3</v>
@@ -25103,7 +25110,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -25122,7 +25129,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
         <v>0.38695663000000002</v>
@@ -25161,7 +25168,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <v>5.7547299999999996E-3</v>
@@ -25198,7 +25205,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <v>7.7677299999999996E-3</v>
@@ -25216,7 +25223,7 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -25252,27 +25259,27 @@
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>5.5973334999999999E-2</v>
@@ -25284,7 +25291,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>1.7068540999999999</v>
@@ -25296,7 +25303,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>6.4005652509999997</v>
@@ -25308,7 +25315,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>9.0600081489999997</v>
@@ -25319,7 +25326,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>17.922757601000001</v>
@@ -25330,7 +25337,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>103.046762079</v>
@@ -25341,7 +25348,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>15038.915584738999</v>
@@ -25352,13 +25359,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -25408,7 +25415,7 @@
         <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>23</v>
@@ -25422,14 +25429,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3">
         <v>2.326711</v>
@@ -25470,14 +25477,14 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="13">
         <v>1430000000</v>
@@ -25540,51 +25547,51 @@
   <sheetData>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -25617,10 +25624,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9">
         <v>3.2820229999999998E-3</v>
@@ -25635,7 +25642,7 @@
         <v>1.2432386E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9">
         <v>1.2881335000000001E-2</v>
@@ -25688,7 +25695,7 @@
         <v>7.4192497999999996E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10">
         <v>0.18733577500000001</v>
@@ -25738,7 +25745,7 @@
         <v>18.417492461999998</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11">
         <v>5.2546672900000004</v>
@@ -25891,7 +25898,7 @@
         <v>1.1399025629999999</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14">
         <v>0.76239580200000001</v>
@@ -25941,10 +25948,10 @@
         <v>3.9964031840000001</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15">
         <v>1.659950805</v>
@@ -25997,10 +26004,10 @@
         <v>194.31132240599999</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16">
         <v>33.564785022000002</v>
@@ -26053,16 +26060,16 @@
         <v>0.67217423899999995</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17">
         <v>4.8127982329999996</v>
@@ -26100,10 +26107,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <v>306472</v>
@@ -26118,7 +26125,7 @@
         <v>3021960</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2">
         <v>3676336</v>
@@ -26132,7 +26139,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -26150,7 +26157,7 @@
         <v>18223392</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2">
         <v>23324816</v>
@@ -26176,7 +26183,7 @@
         <v>2243934328</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2">
         <v>668157720</v>
@@ -26257,7 +26264,7 @@
         <v>124425776</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2">
         <v>95883936</v>
@@ -26283,10 +26290,10 @@
         <v>582593688</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2">
         <v>251616936</v>
@@ -26315,10 +26322,10 @@
         <v>13238613520</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2">
         <v>2070960664</v>
@@ -26347,16 +26354,16 @@
         <v>52085104</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
